--- a/experiment result cnn/128_0.3_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/128_0.3_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04128626647473697</v>
+        <v>0.0003001179999486295</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03798108633249696</v>
+        <v>0.000100021999996678</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04795087589222922</v>
+        <v>0.001161535990781314</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03554518961672008</v>
+        <v>0.001181561989960043</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03271705681192043</v>
+        <v>0.009638718266039101</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04696655482778499</v>
+        <v>0.001403699543892245</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03508982698438627</v>
+        <v>0.0002601739997363669</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03762837602502267</v>
+        <v>0.007488938550985452</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04174340981677069</v>
+        <v>0.001081047987194731</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06033390625882673</v>
+        <v>0.001701749994291666</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05254018687848357</v>
+        <v>0.0009207719977567846</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05325808310263613</v>
+        <v>0.003049419199631947</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07846723176219152</v>
+        <v>0.0003000899999761016</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06518567652413994</v>
+        <v>0.0002200619999857896</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05317668987432406</v>
+        <v>0.0008008359379832042</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07059734827073098</v>
+        <v>0.0002200499999927558</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06367809026299298</v>
+        <v>0.0008405599959517852</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04938568736812712</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04572782654402505</v>
+        <v>0.002345233787657343</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04331447575267976</v>
+        <v>0.002649847547176763</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02918217155663364</v>
+        <v>0.0004003199750519025</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03647629387507781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04523009922321715</v>
+        <v>0.002646575419959431</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02771928738752766</v>
+        <v>0.005000642191790358</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02257488038777803</v>
+        <v>0.0005803819968242306</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04932252288059986</v>
+        <v>0.007613341174266736</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04719134170132958</v>
+        <v>0.001864921371650732</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02885315237790229</v>
+        <v>0.0008812919864160827</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04151313593227778</v>
+        <v>0.001242391890308192</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05746791770425401</v>
+        <v>0.0001600239999985595</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04084448808192868</v>
+        <v>0.001021913974709468</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03786508252583851</v>
+        <v>0.00134374167215472</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06583900709090955</v>
+        <v>0.001705916722110161</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03961830584217596</v>
+        <v>0.001141717850066448</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0432932049094157</v>
+        <v>0.002551982572712146</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06099586326446678</v>
+        <v>0.001402099926516963</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03947532036259845</v>
+        <v>0.001367230000065642</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06583783972747871</v>
+        <v>0.0002000679981809264</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03928633259454332</v>
+        <v>0.003128699387553741</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06543605035912388</v>
+        <v>0.001743769582126915</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04978520644619563</v>
+        <v>0.002290749823604303</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03764639708149353</v>
+        <v>0.0002200419991945972</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04114825109353833</v>
+        <v>0.007061303920103392</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03373780818195196</v>
+        <v>0.0008207939589085446</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03811555251344471</v>
+        <v>0.001803251602818501</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06396104677943408</v>
+        <v>0.00373457780327593</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06650020255633532</v>
+        <v>0.0004804239988019232</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05181067926589918</v>
+        <v>0.0004402719996863569</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05929695065417504</v>
+        <v>0.0002401479998326157</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04276225717421783</v>
+        <v>8.001199999927973e-05</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05439574537176364</v>
+        <v>0.08652429979996887</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03974560897421333</v>
+        <v>0.1594477987999545</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02618095010094584</v>
+        <v>0.0001801059999031852</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02992201279568853</v>
+        <v>0.0001400219999985994</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05017210277357723</v>
+        <v>0.0110277338724147</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03540392880764281</v>
+        <v>0.006006166622044957</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05562457547434065</v>
+        <v>0.01520592137732794</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05858408868958278</v>
+        <v>0.01565018455543517</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04315788935044735</v>
+        <v>0.005061728647895933</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06185567561173281</v>
+        <v>0.0243172417690757</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02582694956262432</v>
+        <v>0.001826648382845652</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03274623432895728</v>
+        <v>0.01769163133257182</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04458533223363824</v>
+        <v>0.01777920169853647</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03535039212171502</v>
+        <v>0.01042451587479988</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03711994663045919</v>
+        <v>0.03444193002186226</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05753108747032207</v>
+        <v>0.06926566010205268</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04903366769371402</v>
+        <v>0.03610092925117073</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04799697657669503</v>
+        <v>0.139620498190031</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03645481832719223</v>
+        <v>0.002896862731612964</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03119811146249234</v>
+        <v>0.1053161628366651</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04068759397773395</v>
+        <v>0.04042969479735049</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03712647794592019</v>
+        <v>0.005763526662768659</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05449673215703675</v>
+        <v>0.0240073015473948</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04877956159303511</v>
+        <v>0.05118009273122866</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04277773291271428</v>
+        <v>0.02414247942503642</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04523114209090383</v>
+        <v>0.05698646711590087</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04984806440094207</v>
+        <v>0.006030694375910958</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04181520076953299</v>
+        <v>0.109138948694983</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05664942949889475</v>
+        <v>0.1449238777856678</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04604507565078284</v>
+        <v>0.06706242677366284</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05583103486520422</v>
+        <v>0.09977060496079534</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06426858631531061</v>
+        <v>0.0116648316518119</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04283337536947601</v>
+        <v>0.006064525386237697</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.05681190720851268</v>
+        <v>0.00749177403192919</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.04120383762995587</v>
+        <v>0.03498337575021931</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.04514501641904604</v>
+        <v>0.02626401413039448</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.04047435165027889</v>
+        <v>0.04153418742965</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06097039879854797</v>
+        <v>0.002669537522336631</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04973235687169662</v>
+        <v>0.01331946017623223</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05315798389288238</v>
+        <v>0.01992720736979853</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.05835447474660101</v>
+        <v>0.01912388349995726</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02588988190404021</v>
+        <v>0.06599935804401146</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.05298275438718782</v>
+        <v>0.04788512257242324</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05569717224620345</v>
+        <v>0.07345201160494226</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02967671403308696</v>
+        <v>0.005264544327683538</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04732739692199859</v>
+        <v>0.004848743687225302</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04823537122437711</v>
+        <v>0.007264478789311457</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04305840534079343</v>
+        <v>0.05261133069996775</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0621545602479802</v>
+        <v>0.03026593015391603</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.04088343889069995</v>
+        <v>0.1378874520109989</v>
       </c>
     </row>
   </sheetData>
